--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180214" sheetId="1" r:id="rId1"/>
+    <sheet name="20180306" sheetId="2" r:id="rId1"/>
+    <sheet name="20180214" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -66,6 +67,18 @@
   </si>
   <si>
     <t>Theta</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日成交</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权总持仓</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -73,9 +86,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -691,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +728,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1037,10 +1054,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1296184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>150580487.00999999</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
+        <v>67331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>114094108.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-3428531</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8">
+        <v>14187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1579467</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>60146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-5263</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,15 +12,52 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180306" sheetId="2" r:id="rId1"/>
-    <sheet name="20180214" sheetId="1" r:id="rId2"/>
+    <sheet name="20180307" sheetId="3" r:id="rId1"/>
+    <sheet name="20180306" sheetId="2" r:id="rId2"/>
+    <sheet name="20180214" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -86,12 +123,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +308,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -705,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +784,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1053,10 +1111,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1303090</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>184637358.10000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>146206761.68000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-6525445</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1792466</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>63781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-5518</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1174,7 +1355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180307" sheetId="3" r:id="rId1"/>
-    <sheet name="20180306" sheetId="2" r:id="rId2"/>
-    <sheet name="20180214" sheetId="1" r:id="rId3"/>
+    <sheet name="20180308" sheetId="4" r:id="rId1"/>
+    <sheet name="20180307" sheetId="3" r:id="rId2"/>
+    <sheet name="20180306" sheetId="2" r:id="rId3"/>
+    <sheet name="20180214" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -56,8 +57,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1115,7 +1152,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1148,21 +1185,21 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1303090</v>
+        <v>1403154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>184637358.10000002</v>
+      <c r="B3" s="9">
+        <v>194261839.55000001</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="10">
-        <v>7000</v>
+        <v>90462</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>146206761.68000001</v>
+        <v>156423541.03</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,13 +1223,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="6">
-        <v>-6525445</v>
+        <v>-1231753</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>14875</v>
+        <v>15467</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1200,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>1792466</v>
+        <v>1330597</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>1006</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1214,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="7">
-        <v>63781</v>
+        <v>51847</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1222,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6">
-        <v>-5518</v>
+        <v>-450</v>
       </c>
     </row>
   </sheetData>
@@ -1234,6 +1271,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1303090</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>184637358.10000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>146206761.68000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-6525445</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1792466</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>63781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-5518</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1355,7 +1515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180308" sheetId="4" r:id="rId1"/>
-    <sheet name="20180307" sheetId="3" r:id="rId2"/>
-    <sheet name="20180306" sheetId="2" r:id="rId3"/>
-    <sheet name="20180214" sheetId="1" r:id="rId4"/>
+    <sheet name="20180309" sheetId="5" r:id="rId1"/>
+    <sheet name="20180308" sheetId="4" r:id="rId2"/>
+    <sheet name="20180307" sheetId="3" r:id="rId3"/>
+    <sheet name="20180306" sheetId="2" r:id="rId4"/>
+    <sheet name="20180214" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -93,8 +94,44 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1152,6 +1189,129 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1445864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>220543802.73000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>182603536.05000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-2374703</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1531559</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>56273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-2408</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1270,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1393,7 +1553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1515,7 +1675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180309" sheetId="5" r:id="rId1"/>
-    <sheet name="20180308" sheetId="4" r:id="rId2"/>
-    <sheet name="20180307" sheetId="3" r:id="rId3"/>
-    <sheet name="20180306" sheetId="2" r:id="rId4"/>
-    <sheet name="20180214" sheetId="1" r:id="rId5"/>
+    <sheet name="20180312" sheetId="6" r:id="rId1"/>
+    <sheet name="20180309" sheetId="5" r:id="rId2"/>
+    <sheet name="20180308" sheetId="4" r:id="rId3"/>
+    <sheet name="20180307" sheetId="3" r:id="rId4"/>
+    <sheet name="20180306" sheetId="2" r:id="rId5"/>
+    <sheet name="20180214" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -130,8 +131,44 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1189,7 +1226,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1445864</v>
+        <v>1445844</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1230,13 +1267,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>220543802.73000002</v>
+        <v>239418204.86000001</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="10">
-        <v>42712</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>182603536.05000001</v>
+        <v>199418081.08000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6">
-        <v>-2374703</v>
+        <v>2891086</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
@@ -1274,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>1531559</v>
+        <v>1652106</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>488</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1288,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="7">
-        <v>56273</v>
+        <v>55907</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1296,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6">
-        <v>-2408</v>
+        <v>-3626</v>
       </c>
     </row>
   </sheetData>
@@ -1308,6 +1345,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1445864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>220543802.73000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>182603536.05000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-2374703</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1531559</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>56273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-2408</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1430,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1553,7 +1713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1675,7 +1835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,12 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180312" sheetId="6" r:id="rId1"/>
-    <sheet name="20180309" sheetId="5" r:id="rId2"/>
-    <sheet name="20180308" sheetId="4" r:id="rId3"/>
-    <sheet name="20180307" sheetId="3" r:id="rId4"/>
-    <sheet name="20180306" sheetId="2" r:id="rId5"/>
-    <sheet name="20180214" sheetId="1" r:id="rId6"/>
+    <sheet name="20180313" sheetId="7" r:id="rId1"/>
+    <sheet name="20180312" sheetId="6" r:id="rId2"/>
+    <sheet name="20180309" sheetId="5" r:id="rId3"/>
+    <sheet name="20180308" sheetId="4" r:id="rId4"/>
+    <sheet name="20180307" sheetId="3" r:id="rId5"/>
+    <sheet name="20180306" sheetId="2" r:id="rId6"/>
+    <sheet name="20180214" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -167,8 +168,44 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1226,6 +1263,129 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1405873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>255732333.96999997</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-39972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>215097218.66999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3537734</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1619936</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-1726</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1344,7 +1504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1467,7 +1627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1590,7 +1750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1713,7 +1873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1835,7 +1995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,13 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180313" sheetId="7" r:id="rId1"/>
-    <sheet name="20180312" sheetId="6" r:id="rId2"/>
-    <sheet name="20180309" sheetId="5" r:id="rId3"/>
-    <sheet name="20180308" sheetId="4" r:id="rId4"/>
-    <sheet name="20180307" sheetId="3" r:id="rId5"/>
-    <sheet name="20180306" sheetId="2" r:id="rId6"/>
-    <sheet name="20180214" sheetId="1" r:id="rId7"/>
+    <sheet name="20180314" sheetId="8" r:id="rId1"/>
+    <sheet name="20180313" sheetId="7" r:id="rId2"/>
+    <sheet name="20180312" sheetId="6" r:id="rId3"/>
+    <sheet name="20180309" sheetId="5" r:id="rId4"/>
+    <sheet name="20180308" sheetId="4" r:id="rId5"/>
+    <sheet name="20180307" sheetId="3" r:id="rId6"/>
+    <sheet name="20180306" sheetId="2" r:id="rId7"/>
+    <sheet name="20180214" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -53,6 +54,22 @@
           </rPr>
           <t xml:space="preserve">
 20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
         </r>
       </text>
     </comment>
@@ -204,8 +221,44 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -906,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +992,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1263,6 +1317,129 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1624221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>231451594.19999999</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>218348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>191395217.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6188988</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1740544</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-2532</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1381,7 +1558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1504,7 +1681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1627,7 +1804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1750,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1873,7 +2050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1995,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180314" sheetId="8" r:id="rId1"/>
-    <sheet name="20180313" sheetId="7" r:id="rId2"/>
-    <sheet name="20180312" sheetId="6" r:id="rId3"/>
-    <sheet name="20180309" sheetId="5" r:id="rId4"/>
-    <sheet name="20180308" sheetId="4" r:id="rId5"/>
-    <sheet name="20180307" sheetId="3" r:id="rId6"/>
-    <sheet name="20180306" sheetId="2" r:id="rId7"/>
-    <sheet name="20180214" sheetId="1" r:id="rId8"/>
+    <sheet name="20180315" sheetId="9" r:id="rId1"/>
+    <sheet name="20180314" sheetId="8" r:id="rId2"/>
+    <sheet name="20180313" sheetId="7" r:id="rId3"/>
+    <sheet name="20180312" sheetId="6" r:id="rId4"/>
+    <sheet name="20180309" sheetId="5" r:id="rId5"/>
+    <sheet name="20180308" sheetId="4" r:id="rId6"/>
+    <sheet name="20180307" sheetId="3" r:id="rId7"/>
+    <sheet name="20180306" sheetId="2" r:id="rId8"/>
+    <sheet name="20180214" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -106,6 +107,22 @@
           </rPr>
           <t xml:space="preserve">
 20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
         </r>
       </text>
     </comment>
@@ -257,8 +274,44 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1317,6 +1370,129 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1571384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>210483549.79000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-52836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>170544595.46000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1490473</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2321289</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>63311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-7740</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
@@ -1435,7 +1611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1558,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1681,7 +1857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1804,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1927,7 +2103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2050,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2172,7 +2348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,15 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180315" sheetId="9" r:id="rId1"/>
-    <sheet name="20180314" sheetId="8" r:id="rId2"/>
-    <sheet name="20180313" sheetId="7" r:id="rId3"/>
-    <sheet name="20180312" sheetId="6" r:id="rId4"/>
-    <sheet name="20180309" sheetId="5" r:id="rId5"/>
-    <sheet name="20180308" sheetId="4" r:id="rId6"/>
-    <sheet name="20180307" sheetId="3" r:id="rId7"/>
-    <sheet name="20180306" sheetId="2" r:id="rId8"/>
-    <sheet name="20180214" sheetId="1" r:id="rId9"/>
+    <sheet name="20180316" sheetId="10" r:id="rId1"/>
+    <sheet name="20180315" sheetId="9" r:id="rId2"/>
+    <sheet name="20180314" sheetId="8" r:id="rId3"/>
+    <sheet name="20180313" sheetId="7" r:id="rId4"/>
+    <sheet name="20180312" sheetId="6" r:id="rId5"/>
+    <sheet name="20180309" sheetId="5" r:id="rId6"/>
+    <sheet name="20180308" sheetId="4" r:id="rId7"/>
+    <sheet name="20180307" sheetId="3" r:id="rId8"/>
+    <sheet name="20180306" sheetId="2" r:id="rId9"/>
+    <sheet name="20180214" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -159,6 +160,22 @@
           </rPr>
           <t xml:space="preserve">
 20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
         </r>
       </text>
     </comment>
@@ -310,8 +327,44 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1370,6 +1423,238 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1617518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>240544995.64000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>46134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>197077171.77000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1838838</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3080612</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>66888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-12763</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>280980000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>63321017.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>49942556.479999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1219649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>108668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-1049209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7">
+        <v>236145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7">
+        <v>29703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-3896</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1488,7 +1773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1611,7 +1896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1734,7 +2019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1857,7 +2142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1980,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2103,7 +2388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2226,7 +2511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2346,113 +2631,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>280980000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>63321017.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>49942556.479999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1219649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
-        <v>108668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="6">
-        <v>-1049209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7">
-        <v>236145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="7">
-        <v>29703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6">
-        <v>-3896</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,16 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180316" sheetId="10" r:id="rId1"/>
-    <sheet name="20180315" sheetId="9" r:id="rId2"/>
-    <sheet name="20180314" sheetId="8" r:id="rId3"/>
-    <sheet name="20180313" sheetId="7" r:id="rId4"/>
-    <sheet name="20180312" sheetId="6" r:id="rId5"/>
-    <sheet name="20180309" sheetId="5" r:id="rId6"/>
-    <sheet name="20180308" sheetId="4" r:id="rId7"/>
-    <sheet name="20180307" sheetId="3" r:id="rId8"/>
-    <sheet name="20180306" sheetId="2" r:id="rId9"/>
-    <sheet name="20180214" sheetId="1" r:id="rId10"/>
+    <sheet name="20180319" sheetId="11" r:id="rId1"/>
+    <sheet name="20180316" sheetId="10" r:id="rId2"/>
+    <sheet name="20180315" sheetId="9" r:id="rId3"/>
+    <sheet name="20180314" sheetId="8" r:id="rId4"/>
+    <sheet name="20180313" sheetId="7" r:id="rId5"/>
+    <sheet name="20180312" sheetId="6" r:id="rId6"/>
+    <sheet name="20180309" sheetId="5" r:id="rId7"/>
+    <sheet name="20180308" sheetId="4" r:id="rId8"/>
+    <sheet name="20180307" sheetId="3" r:id="rId9"/>
+    <sheet name="20180306" sheetId="2" r:id="rId10"/>
+    <sheet name="20180214" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -215,6 +216,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -363,8 +380,44 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1456,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1617518</v>
+        <v>1422705</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1464,13 +1517,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>240544995.64000002</v>
+        <v>213291048.44999999</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>46134</v>
+        <v>-194813</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>197077171.77000001</v>
+        <v>169539135.97</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1494,13 +1547,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>1838838</v>
+        <v>25334742</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>15684</v>
+        <v>16042</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1508,13 +1561,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12">
-        <v>3080612</v>
+        <v>3040149</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>547</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1522,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>66888</v>
+        <v>59961</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1530,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>-12763</v>
+        <v>-8183</v>
       </c>
     </row>
   </sheetData>
@@ -1542,6 +1595,128 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1296184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>150580487.00999999</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
+        <v>67331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>114094108.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-3428531</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8">
+        <v>14187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1579467</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>60146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-5263</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1651,6 +1826,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1617518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>240544995.64000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>46134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>197077171.77000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1838838</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3080612</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>66888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-12763</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1773,7 +2071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1896,7 +2194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2019,7 +2317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2142,7 +2440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2265,7 +2563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2388,7 +2686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2509,126 +2807,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>280980000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1296184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>150580487.00999999</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6">
-        <v>67331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>114094108.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-3428531</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="8">
-        <v>14187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1579467</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>60146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-5263</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -1476,7 +1476,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1422705</v>
+        <v>1644476</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,13 +1517,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>213291048.44999999</v>
+        <v>197219416.16999999</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>-194813</v>
+        <v>221771</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>169539135.97</v>
+        <v>151534995.75999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,13 +1547,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>25334742</v>
+        <v>624450</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>16042</v>
+        <v>16206</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1561,13 +1561,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12">
-        <v>3040149</v>
+        <v>3665193</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>480</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>59961</v>
+        <v>67059</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>-8183</v>
+        <v>-14066</v>
       </c>
     </row>
   </sheetData>

--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,17 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180319" sheetId="11" r:id="rId1"/>
-    <sheet name="20180316" sheetId="10" r:id="rId2"/>
-    <sheet name="20180315" sheetId="9" r:id="rId3"/>
-    <sheet name="20180314" sheetId="8" r:id="rId4"/>
-    <sheet name="20180313" sheetId="7" r:id="rId5"/>
-    <sheet name="20180312" sheetId="6" r:id="rId6"/>
-    <sheet name="20180309" sheetId="5" r:id="rId7"/>
-    <sheet name="20180308" sheetId="4" r:id="rId8"/>
-    <sheet name="20180307" sheetId="3" r:id="rId9"/>
-    <sheet name="20180306" sheetId="2" r:id="rId10"/>
-    <sheet name="20180214" sheetId="1" r:id="rId11"/>
+    <sheet name="20180321" sheetId="12" r:id="rId1"/>
+    <sheet name="20180319" sheetId="11" r:id="rId2"/>
+    <sheet name="20180316" sheetId="10" r:id="rId3"/>
+    <sheet name="20180315" sheetId="9" r:id="rId4"/>
+    <sheet name="20180314" sheetId="8" r:id="rId5"/>
+    <sheet name="20180313" sheetId="7" r:id="rId6"/>
+    <sheet name="20180312" sheetId="6" r:id="rId7"/>
+    <sheet name="20180309" sheetId="5" r:id="rId8"/>
+    <sheet name="20180308" sheetId="4" r:id="rId9"/>
+    <sheet name="20180307" sheetId="3" r:id="rId10"/>
+    <sheet name="20180306" sheetId="2" r:id="rId11"/>
+    <sheet name="20180214" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -73,6 +74,42 @@
           </rPr>
           <t>Dyc:
 9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
         </r>
       </text>
     </comment>
@@ -268,6 +305,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -417,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1476,7 +1529,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1644476</v>
+        <v>1725813</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,13 +1570,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>197219416.16999999</v>
+        <v>173458120.03</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>221771</v>
+        <v>70432</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>151534995.75999999</v>
+        <v>130957331.23999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,13 +1600,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>624450</v>
+        <v>1682637</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>16206</v>
+        <v>15601</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1561,13 +1614,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12">
-        <v>3665193</v>
+        <v>3061785</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>734</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1575,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>67059</v>
+        <v>70432</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1583,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>-14066</v>
+        <v>-12695</v>
       </c>
     </row>
   </sheetData>
@@ -1595,6 +1648,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1303090</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>184637358.10000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>146206761.68000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-6525445</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1792466</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>63781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-5518</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1716,7 +1892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1826,6 +2002,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1644476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>197219416.16999999</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>221771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>151534995.75999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>624450</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>16206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3665193</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>67059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-14066</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1948,7 +2247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2071,7 +2370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2194,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2317,7 +2616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2440,7 +2739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2563,7 +2862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2684,127 +2983,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>280980000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1303090</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>184637358.10000002</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>146206761.68000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-6525445</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11">
-        <v>14875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1792466</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>63781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-5518</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,18 +12,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180321" sheetId="12" r:id="rId1"/>
-    <sheet name="20180319" sheetId="11" r:id="rId2"/>
-    <sheet name="20180316" sheetId="10" r:id="rId3"/>
-    <sheet name="20180315" sheetId="9" r:id="rId4"/>
-    <sheet name="20180314" sheetId="8" r:id="rId5"/>
-    <sheet name="20180313" sheetId="7" r:id="rId6"/>
-    <sheet name="20180312" sheetId="6" r:id="rId7"/>
-    <sheet name="20180309" sheetId="5" r:id="rId8"/>
-    <sheet name="20180308" sheetId="4" r:id="rId9"/>
-    <sheet name="20180307" sheetId="3" r:id="rId10"/>
-    <sheet name="20180306" sheetId="2" r:id="rId11"/>
-    <sheet name="20180214" sheetId="1" r:id="rId12"/>
+    <sheet name="20180322" sheetId="13" r:id="rId1"/>
+    <sheet name="20180321" sheetId="12" r:id="rId2"/>
+    <sheet name="20180319" sheetId="11" r:id="rId3"/>
+    <sheet name="20180316" sheetId="10" r:id="rId4"/>
+    <sheet name="20180315" sheetId="9" r:id="rId5"/>
+    <sheet name="20180314" sheetId="8" r:id="rId6"/>
+    <sheet name="20180313" sheetId="7" r:id="rId7"/>
+    <sheet name="20180312" sheetId="6" r:id="rId8"/>
+    <sheet name="20180309" sheetId="5" r:id="rId9"/>
+    <sheet name="20180308" sheetId="4" r:id="rId10"/>
+    <sheet name="20180307" sheetId="3" r:id="rId11"/>
+    <sheet name="20180306" sheetId="2" r:id="rId12"/>
+    <sheet name="20180214" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -82,6 +83,42 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -357,6 +394,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -470,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1562,7 +1615,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1725813</v>
+        <v>1867455</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>173458120.03</v>
+        <v>157054427.06</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>70432</v>
+        <v>143975</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1584,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>130957331.23999999</v>
+        <v>116023011.41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>1682637</v>
+        <v>-218675</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>15601</v>
+        <v>15802</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1614,13 +1667,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12">
-        <v>3061785</v>
+        <v>3231224</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>1807</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1628,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>70432</v>
+        <v>65054</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1636,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>-12695</v>
+        <v>-16734</v>
       </c>
     </row>
   </sheetData>
@@ -1648,6 +1701,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1403154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>194261839.55000001</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>90462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>156423541.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-1231753</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1330597</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>51847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-450</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1770,7 +1946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1892,7 +2068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2002,6 +2178,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1725813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>173458120.03</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>70432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>130957331.23999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1682637</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3061785</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>70432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-12695</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2124,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2247,7 +2546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2370,7 +2669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2493,7 +2792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2616,7 +2915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2739,7 +3038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2860,127 +3159,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>280980000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1403154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>194261839.55000001</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10">
-        <v>90462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>156423541.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-1231753</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11">
-        <v>15467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1330597</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>51847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-450</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,19 +12,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180322" sheetId="13" r:id="rId1"/>
-    <sheet name="20180321" sheetId="12" r:id="rId2"/>
-    <sheet name="20180319" sheetId="11" r:id="rId3"/>
-    <sheet name="20180316" sheetId="10" r:id="rId4"/>
-    <sheet name="20180315" sheetId="9" r:id="rId5"/>
-    <sheet name="20180314" sheetId="8" r:id="rId6"/>
-    <sheet name="20180313" sheetId="7" r:id="rId7"/>
-    <sheet name="20180312" sheetId="6" r:id="rId8"/>
-    <sheet name="20180309" sheetId="5" r:id="rId9"/>
-    <sheet name="20180308" sheetId="4" r:id="rId10"/>
-    <sheet name="20180307" sheetId="3" r:id="rId11"/>
-    <sheet name="20180306" sheetId="2" r:id="rId12"/>
-    <sheet name="20180214" sheetId="1" r:id="rId13"/>
+    <sheet name="20180326" sheetId="14" r:id="rId1"/>
+    <sheet name="20180322" sheetId="13" r:id="rId2"/>
+    <sheet name="20180321" sheetId="12" r:id="rId3"/>
+    <sheet name="20180319" sheetId="11" r:id="rId4"/>
+    <sheet name="20180316" sheetId="10" r:id="rId5"/>
+    <sheet name="20180315" sheetId="9" r:id="rId6"/>
+    <sheet name="20180314" sheetId="8" r:id="rId7"/>
+    <sheet name="20180313" sheetId="7" r:id="rId8"/>
+    <sheet name="20180312" sheetId="6" r:id="rId9"/>
+    <sheet name="20180309" sheetId="5" r:id="rId10"/>
+    <sheet name="20180308" sheetId="4" r:id="rId11"/>
+    <sheet name="20180307" sheetId="3" r:id="rId12"/>
+    <sheet name="20180306" sheetId="2" r:id="rId13"/>
+    <sheet name="20180214" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -119,6 +120,42 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -446,6 +483,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -523,7 +576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1581,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1615,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1867455</v>
+        <v>2908171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,13 +1676,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>157054427.06</v>
+        <v>44027511.590000004</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>143975</v>
+        <v>952498</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>116023011.41</v>
+        <v>33568041.030000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,13 +1706,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>-218675</v>
+        <v>2872164</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>15802</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1667,13 +1720,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12">
-        <v>3231224</v>
+        <v>1226895</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>1877</v>
+        <v>7355</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1681,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>65054</v>
+        <v>31829</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1689,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>-16734</v>
+        <v>24389</v>
       </c>
     </row>
   </sheetData>
@@ -1701,6 +1754,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1445864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>220543802.73000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>182603536.05000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-2374703</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1531559</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>56273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-2408</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1823,7 +1999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1946,7 +2122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2068,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2215,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1725813</v>
+        <v>1867455</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,13 +2399,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>173458120.03</v>
+        <v>157054427.06</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>70432</v>
+        <v>143975</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>130957331.23999999</v>
+        <v>116023011.41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2253,13 +2429,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>1682637</v>
+        <v>-218675</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>15601</v>
+        <v>15802</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2267,13 +2443,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12">
-        <v>3061785</v>
+        <v>3231224</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>1807</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2281,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>70432</v>
+        <v>65054</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2289,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>-12695</v>
+        <v>-16734</v>
       </c>
     </row>
   </sheetData>
@@ -2301,6 +2477,129 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1725813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>173458120.03</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>70432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>130957331.23999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1682637</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3061785</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>70432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-12695</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2423,7 +2722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2546,7 +2845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2669,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2792,7 +3091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2915,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3036,127 +3335,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>280980000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1445864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>220543802.73000002</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10">
-        <v>42712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>182603536.05000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-2374703</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11">
-        <v>15793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1531559</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>56273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-2408</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权做市汇报表.xlsx
+++ b/期权做市汇报表.xlsx
@@ -12,20 +12,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="20180326" sheetId="14" r:id="rId1"/>
-    <sheet name="20180322" sheetId="13" r:id="rId2"/>
-    <sheet name="20180321" sheetId="12" r:id="rId3"/>
-    <sheet name="20180319" sheetId="11" r:id="rId4"/>
-    <sheet name="20180316" sheetId="10" r:id="rId5"/>
-    <sheet name="20180315" sheetId="9" r:id="rId6"/>
-    <sheet name="20180314" sheetId="8" r:id="rId7"/>
-    <sheet name="20180313" sheetId="7" r:id="rId8"/>
-    <sheet name="20180312" sheetId="6" r:id="rId9"/>
-    <sheet name="20180309" sheetId="5" r:id="rId10"/>
-    <sheet name="20180308" sheetId="4" r:id="rId11"/>
-    <sheet name="20180307" sheetId="3" r:id="rId12"/>
-    <sheet name="20180306" sheetId="2" r:id="rId13"/>
-    <sheet name="20180214" sheetId="1" r:id="rId14"/>
+    <sheet name="20180327" sheetId="15" r:id="rId1"/>
+    <sheet name="20180326" sheetId="14" r:id="rId2"/>
+    <sheet name="20180322" sheetId="13" r:id="rId3"/>
+    <sheet name="20180321" sheetId="12" r:id="rId4"/>
+    <sheet name="20180319" sheetId="11" r:id="rId5"/>
+    <sheet name="20180316" sheetId="10" r:id="rId6"/>
+    <sheet name="20180315" sheetId="9" r:id="rId7"/>
+    <sheet name="20180314" sheetId="8" r:id="rId8"/>
+    <sheet name="20180313" sheetId="7" r:id="rId9"/>
+    <sheet name="20180312" sheetId="6" r:id="rId10"/>
+    <sheet name="20180309" sheetId="5" r:id="rId11"/>
+    <sheet name="20180308" sheetId="4" r:id="rId12"/>
+    <sheet name="20180307" sheetId="3" r:id="rId13"/>
+    <sheet name="20180306" sheetId="2" r:id="rId14"/>
+    <sheet name="20180214" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -156,6 +157,42 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20161229:12月合约交割日，ETF当日实际持有市值需要扣除未到账的ETF份额，实际持有市值为4,538,859.79</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -535,6 +572,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -576,7 +629,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="15">
   <si>
     <t>财务信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1634,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1721,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>2908171</v>
+        <v>2513577</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,13 +1729,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>44027511.590000004</v>
+        <v>2944776.08</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>952498</v>
+        <v>-394595</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1690,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>33568041.030000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,13 +1759,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>2872164</v>
+        <v>-68126</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>7634</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1720,13 +1773,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12">
-        <v>1226895</v>
+        <v>-24529</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>7355</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1734,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>31829</v>
+        <v>-969</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1742,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>24389</v>
+        <v>6040</v>
       </c>
     </row>
   </sheetData>
@@ -1754,6 +1807,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1445844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>239418204.86000001</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>199418081.08000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2891086</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1652106</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>55907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-3626</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1876,7 +2052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1999,7 +2175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2122,7 +2298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2244,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2357,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2391,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1867455</v>
+        <v>2908171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,13 +2575,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>157054427.06</v>
+        <v>44027511.590000004</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>143975</v>
+        <v>952498</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2413,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>116023011.41</v>
+        <v>33568041.030000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,13 +2605,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>-218675</v>
+        <v>2872164</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>15802</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2443,13 +2619,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12">
-        <v>3231224</v>
+        <v>1226895</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>1877</v>
+        <v>7355</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2457,7 +2633,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>65054</v>
+        <v>31829</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2465,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>-16734</v>
+        <v>24389</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <v>1725813</v>
+        <v>1867455</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2522,13 +2698,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>173458120.03</v>
+        <v>157054427.06</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9">
-        <v>70432</v>
+        <v>143975</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2536,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>130957331.23999999</v>
+        <v>116023011.41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,13 +2728,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>1682637</v>
+        <v>-218675</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>15601</v>
+        <v>15802</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2566,13 +2742,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="12">
-        <v>3061785</v>
+        <v>3231224</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>1807</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2580,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>70432</v>
+        <v>65054</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2588,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>-12695</v>
+        <v>-16734</v>
       </c>
     </row>
   </sheetData>
@@ -2600,6 +2776,129 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>280980000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1725813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>173458120.03</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>70432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>130957331.23999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1682637</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3061785</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>70432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-12695</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2722,7 +3021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2845,7 +3144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2968,7 +3267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3091,7 +3390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3212,127 +3511,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>280980000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1445844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>239418204.86000001</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>199418081.08000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2891086</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11">
-        <v>15793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1652106</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>55907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-3626</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>